--- a/record/records.xlsx
+++ b/record/records.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2015 final" sheetId="2" r:id="rId1"/>
     <sheet name="2014 final" sheetId="3" r:id="rId2"/>
     <sheet name="2015 test" sheetId="1" r:id="rId3"/>
+    <sheet name="2014Latex" sheetId="4" r:id="rId4"/>
+    <sheet name="2015Latex" sheetId="5" r:id="rId5"/>
+    <sheet name="Mesh" sheetId="6" r:id="rId6"/>
+    <sheet name="Web" sheetId="7" r:id="rId7"/>
+    <sheet name="Combine" sheetId="8" r:id="rId8"/>
+    <sheet name="Scenario-specific" sheetId="9" r:id="rId9"/>
+    <sheet name="Correct Diagnosis" sheetId="10" r:id="rId10"/>
+    <sheet name="weight" sheetId="11" r:id="rId11"/>
+    <sheet name="number" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="161">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +492,154 @@
   </si>
   <si>
     <t>Scnario-specific Query re-writing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google_Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google_QueryRewrite1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P@10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Significance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM25b0.75_696.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1883.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1884.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1885.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1886.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1887.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1888.res</t>
+  </si>
+  <si>
+    <t>BM25b0.75_1889.res</t>
+  </si>
+  <si>
+    <t>&gt;Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google_Mesh_QueryRewrite1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google_Mesh_QueryRewrite2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google_Mesh_QueryRewrite3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google_Mesh_QueryRewrite4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our infNDCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OurP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM25 infNDCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM25 P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic13 Epiglottitis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic23 Dengue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic27 Anemia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 infNDCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 infNDCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 NDCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 NDCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 P10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +647,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +732,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -596,11 +763,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,8 +817,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -660,6 +835,2622 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mesh!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mesh!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="143603968"/>
+        <c:axId val="144451456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="143603968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144451456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144451456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143603968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>number!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015 NDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>number!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5666666666700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8333333333300001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9333333333299998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9333333333299998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>number!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24110000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>number!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015 P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>number!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5666666666700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8333333333300001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9333333333299998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9333333333299998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>number!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.42109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44779999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="247378688"/>
+        <c:axId val="247380608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="247378688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="247380608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="247380608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="247378688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>number!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014 NDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>number!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.96666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5666666666700002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>number!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.20330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>number!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014 P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>number!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.96666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5666666666700002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>number!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="248447744"/>
+        <c:axId val="248449280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="248447744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="248449280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="248449280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="248447744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mesh!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mesh!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="143354112"/>
+        <c:axId val="143589760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="143354112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143589760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143589760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143354112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Web!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Web!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="143832192"/>
+        <c:axId val="143834496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="143832192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143834496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143834496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143832192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Web!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Web!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="157736960"/>
+        <c:axId val="157738496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157736960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157738496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157738496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157736960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combine!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combine!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combine!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combine!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combine!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combine!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.39329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164151680"/>
+        <c:axId val="164153216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164151680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164153216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164153216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164151680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario-specific'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario-specific'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google_Mesh_QueryRewrite1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google_Mesh_QueryRewrite2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google_Mesh_QueryRewrite3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google_Mesh_QueryRewrite4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario-specific'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31780000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario-specific'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario-specific'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Google_Mesh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google_Mesh_QueryRewrite1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google_Mesh_QueryRewrite2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google_Mesh_QueryRewrite3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google_Mesh_QueryRewrite4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario-specific'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170449536"/>
+        <c:axId val="170459904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170449536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170459904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170459904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170449536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correct Diagnosis'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Topic13 Epiglottitis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Correct Diagnosis'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BM25 P10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OurP10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BM25 infNDCG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Our infNDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Correct Diagnosis'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34429999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correct Diagnosis'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Topic23 Dengue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Correct Diagnosis'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BM25 P10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OurP10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BM25 infNDCG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Our infNDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Correct Diagnosis'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28360000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correct Diagnosis'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Topic27 Anemia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Correct Diagnosis'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BM25 P10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OurP10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BM25 infNDCG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Our infNDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Correct Diagnosis'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0800000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="144457728"/>
+        <c:axId val="165378304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="144457728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165378304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165378304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144457728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014 P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.27329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28110000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015 P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32250000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="166717312"/>
+        <c:axId val="168642048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166717312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168642048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168642048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166717312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014 infNDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015 infNDCG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17780000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="168604032"/>
+        <c:axId val="202498048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="168604032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202498048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="202498048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168604032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1376,12 +4167,508 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.34429999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.28360000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.3967</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.21560000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.2218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.2944</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.2278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.2382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.2409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.24379999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.2019</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.23680000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.20530000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.28110000000000002</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.1759</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.17780000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.96666666666699996</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.2944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="23">
+        <v>1.9666666666699999</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.44669999999999999</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.86666666667</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.3044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="23">
+        <v>2.6666666666699999</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.2409</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2.5666666666700002</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.30890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.2417</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.4511</v>
+      </c>
+      <c r="E5" s="23">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.2059</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.2989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="23">
+        <v>3.5666666666700002</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="E6" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23">
+        <v>3.8333333333300001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.2409</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.44669999999999999</v>
+      </c>
+      <c r="E7" s="23">
+        <v>3.2666666666699999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.2049</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="23">
+        <v>3.9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="E8" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23">
+        <v>3.9333333333299998</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23">
+        <v>3.9333333333299998</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="E10" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1398,7 +4685,7 @@
     <col min="13" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="54">
+    <row r="1" spans="1:13" ht="40.5">
       <c r="A1" s="9" t="s">
         <v>108</v>
       </c>
@@ -1809,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:S13"/>
+    <sheetView topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2748,4 +6035,879 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="24">
+        <f>(C3/C2-1)</f>
+        <v>2.4057738572573761E-3</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.1704</v>
+      </c>
+      <c r="F3" s="24">
+        <f>(E3/E2-1)</f>
+        <v>0.34490923441199683</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="D4" s="24">
+        <f>(C4/C2-1)</f>
+        <v>0.2072975140336808</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F4" s="24">
+        <f>(E4/E3-1)</f>
+        <v>0.21478873239436624</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="D5" s="24">
+        <f>(C5/C2-1)</f>
+        <v>0.24298315958299921</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.2084</v>
+      </c>
+      <c r="F5" s="24">
+        <f>(E5/E2-1)</f>
+        <v>0.64483030781373318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="D6" s="24">
+        <f>(C6/C2-1)</f>
+        <v>0.23857257417802735</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <f>(E6/E2-1)</f>
+        <v>0.61641673243883188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="D7" s="24">
+        <f>(C7/C2-1)</f>
+        <v>0.26062550120288686</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="F7" s="24">
+        <f>(E7/E2-1)</f>
+        <v>0.69613259668508287</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="D8" s="24">
+        <f>(C8/C2-1)</f>
+        <v>0.25180433039294292</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="F8" s="24">
+        <f>(E8/E2-1)</f>
+        <v>0.65824782951854766</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="D9" s="24">
+        <f>(C9/C3-1)</f>
+        <v>0.27120000000000011</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="F9" s="24">
+        <f>(E9/E2-1)</f>
+        <v>0.63141278610891849</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.29110000000000003</v>
+      </c>
+      <c r="D11" s="24">
+        <f>(C11/C3-1)</f>
+        <v>0.1644000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="F11" s="24">
+        <f>(E11/E2-1)</f>
+        <v>0.62983425414364613</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.39329999999999998</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17">
+        <v>0.2135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="D3" s="24">
+        <f>(C3/C2-1)</f>
+        <v>-2.7968471904398218E-3</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.2107</v>
+      </c>
+      <c r="F3" s="24">
+        <f>(E3/E2-1)</f>
+        <v>-1.3114754098360604E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.4022</v>
+      </c>
+      <c r="D4" s="24">
+        <f>(C4/C2-1)</f>
+        <v>2.2629036359013588E-2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F4" s="24">
+        <f>(E4/E3-1)</f>
+        <v>0.11058376839107753</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.4133</v>
+      </c>
+      <c r="D5" s="24">
+        <f>(C5/C2-1)</f>
+        <v>5.0851767098906819E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="F5" s="24">
+        <f>(E5/E2-1)</f>
+        <v>2.1545667447306682E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="D6" s="24">
+        <f>(C6/C2-1)</f>
+        <v>0.15255530129672001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.2409</v>
+      </c>
+      <c r="F6" s="24">
+        <f>(E6/E2-1)</f>
+        <v>0.1283372365339579</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="D7" s="24">
+        <f>(C7/C2-1)</f>
+        <v>5.9496567505720854E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="F7" s="24">
+        <f>(E7/E2-1)</f>
+        <v>9.8360655737704805E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.4289</v>
+      </c>
+      <c r="D8" s="24">
+        <f>(C8/C2-1)</f>
+        <v>9.0516145436053908E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="F8" s="24">
+        <f>(E8/E2-1)</f>
+        <v>9.9297423887587888E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="D9" s="24">
+        <f>(C9/C3-1)</f>
+        <v>7.0882202957674556E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.2349</v>
+      </c>
+      <c r="F9" s="24">
+        <f>(E9/E2-1)</f>
+        <v>0.10023419203747075</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="D12" s="24">
+        <f>(C12/C3-1)</f>
+        <v>-4.2325344212136629E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="F12" s="24">
+        <f>(E12/E2-1)</f>
+        <v>6.9789227166276335E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="B2:B6 E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.39329999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.39219999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.4022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A7" s="25"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A6 C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.39329999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.39219999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.39219999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.4133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1">
+        <v>2013</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.39329999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.39219999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.4022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.4133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.45329999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.41670000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.4289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>